--- a/po_analysis_by_asin/B0CPQBJ3JW_po_data.xlsx
+++ b/po_analysis_by_asin/B0CPQBJ3JW_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45313</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>12</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45411</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>80</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>16</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45432</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>8</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>16</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>64</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>8</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>8</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>32</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>56</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>24</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>24</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>40</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>144</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>24</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>40</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45621</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>152</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45628</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>32</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45635</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>24</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>12</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>80</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>24</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>16</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>64</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>16</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>112</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>272</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>152</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45627</v>
+        <v>45657.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>56</v>

--- a/po_analysis_by_asin/B0CPQBJ3JW_po_data.xlsx
+++ b/po_analysis_by_asin/B0CPQBJ3JW_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -629,7 +630,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -711,6 +712,425 @@
       </c>
       <c r="B11" t="n">
         <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-36.57337856754167</v>
+      </c>
+      <c r="D2" t="n">
+        <v>61.89533724481247</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>25</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-24.31819983503937</v>
+      </c>
+      <c r="D3" t="n">
+        <v>76.89963537395286</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>27</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-22.150811929235</v>
+      </c>
+      <c r="D4" t="n">
+        <v>74.48910601392286</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>28</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-21.83904254600911</v>
+      </c>
+      <c r="D5" t="n">
+        <v>78.86987471978131</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>33</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-14.47525481199769</v>
+      </c>
+      <c r="D6" t="n">
+        <v>87.46319161979015</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>36</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-17.52974015839381</v>
+      </c>
+      <c r="D7" t="n">
+        <v>84.63008622609317</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>40</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-10.80574798815816</v>
+      </c>
+      <c r="D8" t="n">
+        <v>90.42204398533332</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>41</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-8.55949040583101</v>
+      </c>
+      <c r="D9" t="n">
+        <v>91.01206901511189</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>44</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-3.649238841750808</v>
+      </c>
+      <c r="D10" t="n">
+        <v>93.96269200848521</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>46</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7121688923496172</v>
+      </c>
+      <c r="D11" t="n">
+        <v>96.32732039534361</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>47</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-7.452780310086221</v>
+      </c>
+      <c r="D12" t="n">
+        <v>97.01467498627824</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>48</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-5.444813691147834</v>
+      </c>
+      <c r="D13" t="n">
+        <v>99.71720718097346</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>49</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1.456717977426887</v>
+      </c>
+      <c r="D14" t="n">
+        <v>99.90779573435015</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>50</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1.309246375322246</v>
+      </c>
+      <c r="D15" t="n">
+        <v>98.64976014940767</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>51</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.012880936515485</v>
+      </c>
+      <c r="D16" t="n">
+        <v>98.97050202541543</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>52</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-1.343182382533026</v>
+      </c>
+      <c r="D17" t="n">
+        <v>102.7863173985139</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>56</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9869600889338391</v>
+      </c>
+      <c r="D18" t="n">
+        <v>104.8996676131508</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>57</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6.264065056321156</v>
+      </c>
+      <c r="D19" t="n">
+        <v>105.414701293428</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>58</v>
+      </c>
+      <c r="C20" t="n">
+        <v>10.03308714678861</v>
+      </c>
+      <c r="D20" t="n">
+        <v>108.3052301790697</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>59</v>
+      </c>
+      <c r="C21" t="n">
+        <v>16.74044643475432</v>
+      </c>
+      <c r="D21" t="n">
+        <v>109.9293996633346</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>61</v>
+      </c>
+      <c r="C22" t="n">
+        <v>12.59493249614236</v>
+      </c>
+      <c r="D22" t="n">
+        <v>111.3474902201848</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>62</v>
+      </c>
+      <c r="C23" t="n">
+        <v>12.1188079653413</v>
+      </c>
+      <c r="D23" t="n">
+        <v>106.3316416391734</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>63</v>
+      </c>
+      <c r="C24" t="n">
+        <v>14.56482611764048</v>
+      </c>
+      <c r="D24" t="n">
+        <v>111.4806567265445</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>64</v>
+      </c>
+      <c r="C25" t="n">
+        <v>11.89277256224038</v>
+      </c>
+      <c r="D25" t="n">
+        <v>117.8029551173542</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>65</v>
+      </c>
+      <c r="C26" t="n">
+        <v>15.8946196444488</v>
+      </c>
+      <c r="D26" t="n">
+        <v>116.9849637296806</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>66</v>
+      </c>
+      <c r="C27" t="n">
+        <v>17.18413951842223</v>
+      </c>
+      <c r="D27" t="n">
+        <v>115.3083683365439</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>67</v>
+      </c>
+      <c r="C28" t="n">
+        <v>17.00083403749505</v>
+      </c>
+      <c r="D28" t="n">
+        <v>116.0284002533477</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CPQBJ3JW_po_data.xlsx
+++ b/po_analysis_by_asin/B0CPQBJ3JW_po_data.xlsx
@@ -725,7 +725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,16 +744,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -762,12 +752,6 @@
       <c r="B2" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="n">
-        <v>-36.57337856754167</v>
-      </c>
-      <c r="D2" t="n">
-        <v>61.89533724481247</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -776,12 +760,6 @@
       <c r="B3" t="n">
         <v>25</v>
       </c>
-      <c r="C3" t="n">
-        <v>-24.31819983503937</v>
-      </c>
-      <c r="D3" t="n">
-        <v>76.89963537395286</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -790,12 +768,6 @@
       <c r="B4" t="n">
         <v>27</v>
       </c>
-      <c r="C4" t="n">
-        <v>-22.150811929235</v>
-      </c>
-      <c r="D4" t="n">
-        <v>74.48910601392286</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -804,12 +776,6 @@
       <c r="B5" t="n">
         <v>28</v>
       </c>
-      <c r="C5" t="n">
-        <v>-21.83904254600911</v>
-      </c>
-      <c r="D5" t="n">
-        <v>78.86987471978131</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -818,12 +784,6 @@
       <c r="B6" t="n">
         <v>33</v>
       </c>
-      <c r="C6" t="n">
-        <v>-14.47525481199769</v>
-      </c>
-      <c r="D6" t="n">
-        <v>87.46319161979015</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -832,12 +792,6 @@
       <c r="B7" t="n">
         <v>36</v>
       </c>
-      <c r="C7" t="n">
-        <v>-17.52974015839381</v>
-      </c>
-      <c r="D7" t="n">
-        <v>84.63008622609317</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -846,12 +800,6 @@
       <c r="B8" t="n">
         <v>40</v>
       </c>
-      <c r="C8" t="n">
-        <v>-10.80574798815816</v>
-      </c>
-      <c r="D8" t="n">
-        <v>90.42204398533332</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -860,12 +808,6 @@
       <c r="B9" t="n">
         <v>41</v>
       </c>
-      <c r="C9" t="n">
-        <v>-8.55949040583101</v>
-      </c>
-      <c r="D9" t="n">
-        <v>91.01206901511189</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -874,12 +816,6 @@
       <c r="B10" t="n">
         <v>44</v>
       </c>
-      <c r="C10" t="n">
-        <v>-3.649238841750808</v>
-      </c>
-      <c r="D10" t="n">
-        <v>93.96269200848521</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -888,12 +824,6 @@
       <c r="B11" t="n">
         <v>46</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.7121688923496172</v>
-      </c>
-      <c r="D11" t="n">
-        <v>96.32732039534361</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -902,12 +832,6 @@
       <c r="B12" t="n">
         <v>47</v>
       </c>
-      <c r="C12" t="n">
-        <v>-7.452780310086221</v>
-      </c>
-      <c r="D12" t="n">
-        <v>97.01467498627824</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -916,12 +840,6 @@
       <c r="B13" t="n">
         <v>48</v>
       </c>
-      <c r="C13" t="n">
-        <v>-5.444813691147834</v>
-      </c>
-      <c r="D13" t="n">
-        <v>99.71720718097346</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -930,12 +848,6 @@
       <c r="B14" t="n">
         <v>49</v>
       </c>
-      <c r="C14" t="n">
-        <v>-1.456717977426887</v>
-      </c>
-      <c r="D14" t="n">
-        <v>99.90779573435015</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -944,12 +856,6 @@
       <c r="B15" t="n">
         <v>50</v>
       </c>
-      <c r="C15" t="n">
-        <v>-1.309246375322246</v>
-      </c>
-      <c r="D15" t="n">
-        <v>98.64976014940767</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -958,12 +864,6 @@
       <c r="B16" t="n">
         <v>51</v>
       </c>
-      <c r="C16" t="n">
-        <v>3.012880936515485</v>
-      </c>
-      <c r="D16" t="n">
-        <v>98.97050202541543</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -972,12 +872,6 @@
       <c r="B17" t="n">
         <v>52</v>
       </c>
-      <c r="C17" t="n">
-        <v>-1.343182382533026</v>
-      </c>
-      <c r="D17" t="n">
-        <v>102.7863173985139</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -986,12 +880,6 @@
       <c r="B18" t="n">
         <v>56</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.9869600889338391</v>
-      </c>
-      <c r="D18" t="n">
-        <v>104.8996676131508</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1000,12 +888,6 @@
       <c r="B19" t="n">
         <v>57</v>
       </c>
-      <c r="C19" t="n">
-        <v>6.264065056321156</v>
-      </c>
-      <c r="D19" t="n">
-        <v>105.414701293428</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1014,12 +896,6 @@
       <c r="B20" t="n">
         <v>58</v>
       </c>
-      <c r="C20" t="n">
-        <v>10.03308714678861</v>
-      </c>
-      <c r="D20" t="n">
-        <v>108.3052301790697</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1028,12 +904,6 @@
       <c r="B21" t="n">
         <v>59</v>
       </c>
-      <c r="C21" t="n">
-        <v>16.74044643475432</v>
-      </c>
-      <c r="D21" t="n">
-        <v>109.9293996633346</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1042,12 +912,6 @@
       <c r="B22" t="n">
         <v>61</v>
       </c>
-      <c r="C22" t="n">
-        <v>12.59493249614236</v>
-      </c>
-      <c r="D22" t="n">
-        <v>111.3474902201848</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1056,12 +920,6 @@
       <c r="B23" t="n">
         <v>62</v>
       </c>
-      <c r="C23" t="n">
-        <v>12.1188079653413</v>
-      </c>
-      <c r="D23" t="n">
-        <v>106.3316416391734</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1070,12 +928,6 @@
       <c r="B24" t="n">
         <v>63</v>
       </c>
-      <c r="C24" t="n">
-        <v>14.56482611764048</v>
-      </c>
-      <c r="D24" t="n">
-        <v>111.4806567265445</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1084,12 +936,6 @@
       <c r="B25" t="n">
         <v>64</v>
       </c>
-      <c r="C25" t="n">
-        <v>11.89277256224038</v>
-      </c>
-      <c r="D25" t="n">
-        <v>117.8029551173542</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1098,12 +944,6 @@
       <c r="B26" t="n">
         <v>65</v>
       </c>
-      <c r="C26" t="n">
-        <v>15.8946196444488</v>
-      </c>
-      <c r="D26" t="n">
-        <v>116.9849637296806</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1112,12 +952,6 @@
       <c r="B27" t="n">
         <v>66</v>
       </c>
-      <c r="C27" t="n">
-        <v>17.18413951842223</v>
-      </c>
-      <c r="D27" t="n">
-        <v>115.3083683365439</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1125,12 +959,6 @@
       </c>
       <c r="B28" t="n">
         <v>67</v>
-      </c>
-      <c r="C28" t="n">
-        <v>17.00083403749505</v>
-      </c>
-      <c r="D28" t="n">
-        <v>116.0284002533477</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CPQBJ3JW_po_data.xlsx
+++ b/po_analysis_by_asin/B0CPQBJ3JW_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,6 +603,30 @@
         <v>24</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -614,7 +638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,6 +738,14 @@
         <v>56</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -725,7 +757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,7 +782,7 @@
         <v>45319.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +790,7 @@
         <v>45417.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -766,7 +798,7 @@
         <v>45431.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -774,7 +806,7 @@
         <v>45438.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -782,7 +814,7 @@
         <v>45473.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -790,7 +822,7 @@
         <v>45487.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -798,7 +830,7 @@
         <v>45515.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -806,7 +838,7 @@
         <v>45522.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
@@ -814,7 +846,7 @@
         <v>45543.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -822,7 +854,7 @@
         <v>45557.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -830,7 +862,7 @@
         <v>45564.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
@@ -838,7 +870,7 @@
         <v>45571.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
@@ -846,7 +878,7 @@
         <v>45578.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +886,7 @@
         <v>45585.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
@@ -862,7 +894,7 @@
         <v>45592.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
@@ -870,7 +902,7 @@
         <v>45599.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
@@ -878,7 +910,7 @@
         <v>45627.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
@@ -886,7 +918,7 @@
         <v>45634.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
@@ -894,71 +926,95 @@
         <v>45641.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45690.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45697.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>67</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45718.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45725.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45732.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
